--- a/CashFlow/XYL_cashflow.xlsx
+++ b/CashFlow/XYL_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2308000000.0</v>
+        <v>-5000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2289000000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1715000000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1135000000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>537000000.0</v>
+        <v>47000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>16000000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>2068000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-32000000.0</v>
+        <v>2096000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-33000000.0</v>
+        <v>1595000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>13000000.0</v>
+        <v>1125000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>94000000.0</v>
+        <v>632000000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
